--- a/VerveStacks_BGR_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_BGR_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FEF4A81-4F46-4E1A-8A81-F9C1889E2F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB5FAA0-36FC-4362-9EA1-4878B9515FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
